--- a/Code/Results/Cases/Case_1_173/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_173/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.299807234042703</v>
+        <v>2.458217522889299</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.8550767323011144</v>
+        <v>0.2838200445432904</v>
       </c>
       <c r="E2">
-        <v>0.529016202753688</v>
+        <v>0.1396907984917775</v>
       </c>
       <c r="F2">
-        <v>6.92213044353818</v>
+        <v>6.80759003412939</v>
       </c>
       <c r="G2">
-        <v>0.0007978699478474738</v>
+        <v>0.002697211286910887</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.5075003187869527</v>
+        <v>0.1417496444457811</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.382106142891786</v>
+        <v>1.038824214430605</v>
       </c>
       <c r="M2">
-        <v>0.8693955842658028</v>
+        <v>0.7957860429121553</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.026092555609921</v>
+        <v>2.413157449983714</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7264750062827545</v>
+        <v>0.2544742934871635</v>
       </c>
       <c r="E3">
-        <v>0.4507692308528206</v>
+        <v>0.1210603239397514</v>
       </c>
       <c r="F3">
-        <v>6.215268050847868</v>
+        <v>6.685570878255021</v>
       </c>
       <c r="G3">
-        <v>0.0008161643178036719</v>
+        <v>0.002707607811294551</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.4409483255163167</v>
+        <v>0.1252084768248949</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.190976926570016</v>
+        <v>1.005668542131559</v>
       </c>
       <c r="M3">
-        <v>0.7573483879099427</v>
+        <v>0.7768370955421844</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.863946188099447</v>
+        <v>2.387138399535701</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.650753243998679</v>
+        <v>0.2366359290947457</v>
       </c>
       <c r="E4">
-        <v>0.4043997810971121</v>
+        <v>0.1096626335943824</v>
       </c>
       <c r="F4">
-        <v>5.80425633519036</v>
+        <v>6.614285832956796</v>
       </c>
       <c r="G4">
-        <v>0.0008275263215695061</v>
+        <v>0.002714314004745793</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.4013086029141562</v>
+        <v>0.1150261744335381</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>1.078037143212896</v>
+        <v>0.9861727002578107</v>
       </c>
       <c r="M4">
-        <v>0.6910443951214305</v>
+        <v>0.7657938199764871</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.799149318977385</v>
+        <v>2.37694849909451</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.6205673852261668</v>
+        <v>0.2294097729609064</v>
       </c>
       <c r="E5">
-        <v>0.3858437438287154</v>
+        <v>0.1050273848789232</v>
       </c>
       <c r="F5">
-        <v>5.641700705545503</v>
+        <v>6.586137278326277</v>
       </c>
       <c r="G5">
-        <v>0.0008321986554687341</v>
+        <v>0.002717128341331643</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.3853964947833362</v>
+        <v>0.1108695739951315</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>1.032943947450065</v>
+        <v>0.9784431497423896</v>
       </c>
       <c r="M5">
-        <v>0.6645573815880681</v>
+        <v>0.7614415989522385</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.78846158585435</v>
+        <v>2.375281385125646</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.6155918294271601</v>
+        <v>0.2282124175077911</v>
       </c>
       <c r="E6">
-        <v>0.3827809322448275</v>
+        <v>0.1042582435596771</v>
       </c>
       <c r="F6">
-        <v>5.614984089556572</v>
+        <v>6.581517242551797</v>
       </c>
       <c r="G6">
-        <v>0.0008329773003470139</v>
+        <v>0.002717600593240903</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.3827671550694589</v>
+        <v>0.110178916935908</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>1.025507757005244</v>
+        <v>0.9771726147203594</v>
       </c>
       <c r="M6">
-        <v>0.6601888951097337</v>
+        <v>0.7607278345765636</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.863067389003447</v>
+        <v>2.386999304146968</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6503436016062096</v>
+        <v>0.2365383028445649</v>
       </c>
       <c r="E7">
-        <v>0.4041482493315769</v>
+        <v>0.1096000842851197</v>
       </c>
       <c r="F7">
-        <v>5.802045101511538</v>
+        <v>6.6139025824599</v>
       </c>
       <c r="G7">
-        <v>0.0008275891515141363</v>
+        <v>0.002714351629243719</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.4010931086409357</v>
+        <v>0.1149701472509577</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>1.077425448712404</v>
+        <v>0.9860675876591927</v>
       </c>
       <c r="M7">
-        <v>0.6906851408233194</v>
+        <v>0.7657345260669643</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.204066737870221</v>
+        <v>2.442337916623273</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.809968280563595</v>
+        <v>0.2736629469555112</v>
       </c>
       <c r="E8">
-        <v>0.5016357039652064</v>
+        <v>0.1332577647106419</v>
       </c>
       <c r="F8">
-        <v>6.673074622372781</v>
+        <v>6.764755157231292</v>
       </c>
       <c r="G8">
-        <v>0.0008041573983934643</v>
+        <v>0.002700729256500365</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.4842555407683875</v>
+        <v>0.1360512036086305</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.315170976709311</v>
+        <v>1.027212283025221</v>
       </c>
       <c r="M8">
-        <v>0.8301823312550738</v>
+        <v>0.7891292356054933</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.931206742613085</v>
+        <v>2.564006322020532</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.156745402482699</v>
+        <v>0.3479947177460474</v>
       </c>
       <c r="E9">
-        <v>0.7106813664682932</v>
+        <v>0.1800293600778531</v>
       </c>
       <c r="F9">
-        <v>8.610823301024482</v>
+        <v>7.090052917855331</v>
       </c>
       <c r="G9">
-        <v>0.0007586918259296702</v>
+        <v>0.002676559401487406</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.6608189705021346</v>
+        <v>0.1772196429262465</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.826466145406499</v>
+        <v>1.11481487269063</v>
       </c>
       <c r="M9">
-        <v>1.128783053602518</v>
+        <v>0.8397370148142471</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.521688663985117</v>
+        <v>2.661533153017899</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.446844693569375</v>
+        <v>0.4036874852777999</v>
       </c>
       <c r="E10">
-        <v>0.8836406550396703</v>
+        <v>0.2146969502910139</v>
       </c>
       <c r="F10">
-        <v>10.25969317299695</v>
+        <v>7.347934887929057</v>
       </c>
       <c r="G10">
-        <v>0.0007246028600329468</v>
+        <v>0.002660328820445812</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.805802299718664</v>
+        <v>0.2074135894358307</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>2.247969770268355</v>
+        <v>1.183516908222117</v>
       </c>
       <c r="M10">
-        <v>1.372966509773846</v>
+        <v>0.8798628462298268</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.809085918893118</v>
+        <v>2.707696293629738</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.591324440135935</v>
+        <v>0.4292915374342101</v>
       </c>
       <c r="E11">
-        <v>0.9693393008723774</v>
+        <v>0.2305508958695981</v>
       </c>
       <c r="F11">
-        <v>11.0861513690835</v>
+        <v>7.469557505842829</v>
       </c>
       <c r="G11">
-        <v>0.000708628988216445</v>
+        <v>0.002653271577311064</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.8774324965626903</v>
+        <v>0.2211501418560715</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>2.455674954571805</v>
+        <v>1.215742393312979</v>
       </c>
       <c r="M11">
-        <v>1.492509555329605</v>
+        <v>0.8987706288010457</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.921395066686898</v>
+        <v>2.725437792860248</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.648424176470428</v>
+        <v>0.4390285094941362</v>
       </c>
       <c r="E12">
-        <v>1.003145507566359</v>
+        <v>0.236567718935575</v>
       </c>
       <c r="F12">
-        <v>11.41338940094738</v>
+        <v>7.516249295143723</v>
       </c>
       <c r="G12">
-        <v>0.0007024747536918827</v>
+        <v>0.002650645679166695</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.9056657116548621</v>
+        <v>0.2263529479037345</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>2.537349800246318</v>
+        <v>1.228087492716583</v>
       </c>
       <c r="M12">
-        <v>1.53936317814005</v>
+        <v>0.9060257213727994</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.897037306873813</v>
+        <v>2.721605223645099</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.636008741842943</v>
+        <v>0.4369296010475807</v>
       </c>
       <c r="E13">
-        <v>0.995797608714426</v>
+        <v>0.2352712771916714</v>
       </c>
       <c r="F13">
-        <v>11.34221269964524</v>
+        <v>7.506164839500173</v>
       </c>
       <c r="G13">
-        <v>0.0007038056185433819</v>
+        <v>0.002651209150001645</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.8995300067846017</v>
+        <v>0.2252323681033062</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>2.519610831772553</v>
+        <v>1.225422403559605</v>
       </c>
       <c r="M13">
-        <v>1.529194615287153</v>
+        <v>0.9044589596590242</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.818250550218067</v>
+        <v>2.709150664328831</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.595970050435454</v>
+        <v>0.4300917618381845</v>
       </c>
       <c r="E14">
-        <v>0.972090983436118</v>
+        <v>0.2310456299768902</v>
       </c>
       <c r="F14">
-        <v>11.11276428565736</v>
+        <v>7.473386028918355</v>
       </c>
       <c r="G14">
-        <v>0.0007081250532925389</v>
+        <v>0.002653054612623686</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.8797309712198285</v>
+        <v>0.2215781530596956</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>2.462328735883403</v>
+        <v>1.216755173361605</v>
       </c>
       <c r="M14">
-        <v>1.496329883552235</v>
+        <v>0.8993655970823511</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.770471874816565</v>
+        <v>2.701555876111627</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.571777372738609</v>
+        <v>0.4259088403364331</v>
       </c>
       <c r="E15">
-        <v>0.9577587291702088</v>
+        <v>0.2284590666969279</v>
       </c>
       <c r="F15">
-        <v>10.9741970371814</v>
+        <v>7.453391362406762</v>
       </c>
       <c r="G15">
-        <v>0.0007107557580041668</v>
+        <v>0.002654191060050836</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.8677583925337728</v>
+        <v>0.219340007819028</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>2.427661262177423</v>
+        <v>1.211464803683157</v>
       </c>
       <c r="M15">
-        <v>1.476418858851801</v>
+        <v>0.8962581851045428</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.50334533291408</v>
+        <v>2.658552627054007</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.437700159658931</v>
+        <v>0.4020198342927586</v>
       </c>
       <c r="E16">
-        <v>0.8782080161309267</v>
+        <v>0.213662645492434</v>
       </c>
       <c r="F16">
-        <v>10.20747599176076</v>
+        <v>7.340074672268059</v>
       </c>
       <c r="G16">
-        <v>0.0007256344268303605</v>
+        <v>0.002660796558823865</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.801257935973382</v>
+        <v>0.2065159734326301</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>2.234773436365458</v>
+        <v>1.181430649550151</v>
       </c>
       <c r="M16">
-        <v>1.365353114432438</v>
+        <v>0.8786404322714105</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.344761164992235</v>
+        <v>2.632633357634859</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.359011569508965</v>
+        <v>0.3874354439655292</v>
       </c>
       <c r="E17">
-        <v>0.8314131441440935</v>
+        <v>0.2046077959346917</v>
       </c>
       <c r="F17">
-        <v>9.758697833169634</v>
+        <v>7.271673961944884</v>
       </c>
       <c r="G17">
-        <v>0.0007346191536923891</v>
+        <v>0.00266493208509228</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.7620927143894249</v>
+        <v>0.1986497757422825</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>2.120974268366837</v>
+        <v>1.163256271119138</v>
       </c>
       <c r="M17">
-        <v>1.299611103968473</v>
+        <v>0.868000822481946</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.255257612667947</v>
+        <v>2.617894360034484</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.314885035943888</v>
+        <v>0.379072062713675</v>
       </c>
       <c r="E18">
-        <v>0.8051323896969365</v>
+        <v>0.1994074654054003</v>
       </c>
       <c r="F18">
-        <v>9.507513818678177</v>
+        <v>7.232736454794718</v>
       </c>
       <c r="G18">
-        <v>0.0007397458887048596</v>
+        <v>0.002667341449717287</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.7400779294837179</v>
+        <v>0.1941254012872093</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>2.056967430685347</v>
+        <v>1.152894259098076</v>
       </c>
       <c r="M18">
-        <v>1.262566871862248</v>
+        <v>0.8619427251882144</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.225227135319813</v>
+        <v>2.612932968851169</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.300124355938806</v>
+        <v>0.376244611942127</v>
       </c>
       <c r="E19">
-        <v>0.7963345147184526</v>
+        <v>0.1976480208458753</v>
       </c>
       <c r="F19">
-        <v>9.423576036097984</v>
+        <v>7.219621920759977</v>
       </c>
       <c r="G19">
-        <v>0.0007414756282800979</v>
+        <v>0.002668162506342791</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.7327047628497638</v>
+        <v>0.1925935082600887</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>2.035526119617515</v>
+        <v>1.149401495598596</v>
       </c>
       <c r="M19">
-        <v>1.250147053986908</v>
+        <v>0.8599020938409154</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.361460916020064</v>
+        <v>2.635374994680262</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.367267208877564</v>
+        <v>0.3889853533400753</v>
       </c>
       <c r="E20">
-        <v>0.836326762616352</v>
+        <v>0.2055708858909071</v>
       </c>
       <c r="F20">
-        <v>9.805732222226766</v>
+        <v>7.278913326843906</v>
       </c>
       <c r="G20">
-        <v>0.0007336671977043609</v>
+        <v>0.002664488674710799</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.7662071411249087</v>
+        <v>0.1994871338573034</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>2.132934097458218</v>
+        <v>1.165181488894234</v>
       </c>
       <c r="M20">
-        <v>1.306527598586669</v>
+        <v>0.8691270522037087</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.841290214721141</v>
+        <v>2.712801783273164</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.607659784580818</v>
+        <v>0.4320990600007519</v>
       </c>
       <c r="E21">
-        <v>0.9790140529556481</v>
+        <v>0.2322864342919928</v>
       </c>
       <c r="F21">
-        <v>11.17973933000161</v>
+        <v>7.482996571019839</v>
       </c>
       <c r="G21">
-        <v>0.0007068595605955676</v>
+        <v>0.002652511295849277</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.8855134580826558</v>
+        <v>0.2226514481374835</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>2.479064771752235</v>
+        <v>1.219297077293589</v>
       </c>
       <c r="M21">
-        <v>1.505936442147728</v>
+        <v>0.9008590509723717</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>4.175739673448618</v>
+        <v>2.764924187522297</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.779145291997963</v>
+        <v>0.460518172389186</v>
       </c>
       <c r="E22">
-        <v>1.080428168203454</v>
+        <v>0.249824603415064</v>
       </c>
       <c r="F22">
-        <v>12.1634377365549</v>
+        <v>7.620091255161469</v>
       </c>
       <c r="G22">
-        <v>0.0006886965007038004</v>
+        <v>0.00264495440696825</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.9701765578235211</v>
+        <v>0.2377973585199129</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>2.723447753000812</v>
+        <v>1.255493539792923</v>
       </c>
       <c r="M22">
-        <v>1.645780522771929</v>
+        <v>0.9221527272167975</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.994996262557663</v>
+        <v>2.736965749024648</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.686047550112505</v>
+        <v>0.4453273642943714</v>
       </c>
       <c r="E23">
-        <v>1.025403590948983</v>
+        <v>0.2404565830556891</v>
       </c>
       <c r="F23">
-        <v>11.6291535404817</v>
+        <v>7.546575963609484</v>
       </c>
       <c r="G23">
-        <v>0.0006984658484673394</v>
+        <v>0.002648962985253966</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.9242492292004556</v>
+        <v>0.2297127810858939</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>2.591037707283135</v>
+        <v>1.236098235322089</v>
       </c>
       <c r="M23">
-        <v>1.57011288954142</v>
+        <v>0.9107367563436384</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.353905815993585</v>
+        <v>2.634134995083457</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.363531410113495</v>
+        <v>0.3882845729147562</v>
       </c>
       <c r="E24">
-        <v>0.8341034016579556</v>
+        <v>0.2051354561256318</v>
       </c>
       <c r="F24">
-        <v>9.784446949416946</v>
+        <v>7.275639205850723</v>
       </c>
       <c r="G24">
-        <v>0.0007340976948762667</v>
+        <v>0.002664689041581573</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.7643454661123315</v>
+        <v>0.1991085705277271</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>2.127522693445741</v>
+        <v>1.16431082810962</v>
       </c>
       <c r="M24">
-        <v>1.303398335791854</v>
+        <v>0.8686177008117397</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.726404319768847</v>
+        <v>2.529671927051311</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.058024869897565</v>
+        <v>0.3277070429963658</v>
       </c>
       <c r="E25">
-        <v>0.6514745937627637</v>
+        <v>0.1673283674118835</v>
       </c>
       <c r="F25">
-        <v>8.054484735759786</v>
+        <v>6.998802069240128</v>
       </c>
       <c r="G25">
-        <v>0.0007710262980222034</v>
+        <v>0.002682828116338637</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.6109981561340447</v>
+        <v>0.1660955831146822</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.681704915698106</v>
+        <v>1.090363033537869</v>
       </c>
       <c r="M25">
-        <v>1.04447903151916</v>
+        <v>0.8255337392173772</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_173/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_173/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2.458217522889299</v>
+        <v>2.299807234042817</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2838200445432904</v>
+        <v>0.8550767323011428</v>
       </c>
       <c r="E2">
-        <v>0.1396907984917775</v>
+        <v>0.5290162027537022</v>
       </c>
       <c r="F2">
-        <v>6.80759003412939</v>
+        <v>6.922130443538123</v>
       </c>
       <c r="G2">
-        <v>0.002697211286910887</v>
+        <v>0.0007978699479653301</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,16 +445,16 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1417496444457811</v>
+        <v>0.5075003187869243</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>1.038824214430605</v>
+        <v>1.382106142891729</v>
       </c>
       <c r="M2">
-        <v>0.7957860429121553</v>
+        <v>0.8693955842658028</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.413157449983714</v>
+        <v>2.026092555609864</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2544742934871635</v>
+        <v>0.7264750062826977</v>
       </c>
       <c r="E3">
-        <v>0.1210603239397514</v>
+        <v>0.450769230852913</v>
       </c>
       <c r="F3">
-        <v>6.685570878255021</v>
+        <v>6.215268050847925</v>
       </c>
       <c r="G3">
-        <v>0.002707607811294551</v>
+        <v>0.0008161643176548208</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,16 +492,16 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.1252084768248949</v>
+        <v>0.4409483255161604</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>1.005668542131559</v>
+        <v>1.190976926570187</v>
       </c>
       <c r="M3">
-        <v>0.7768370955421844</v>
+        <v>0.7573483879099641</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.387138399535701</v>
+        <v>1.863946188099618</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2366359290947457</v>
+        <v>0.6507532439991621</v>
       </c>
       <c r="E4">
-        <v>0.1096626335943824</v>
+        <v>0.4043997810971476</v>
       </c>
       <c r="F4">
-        <v>6.614285832956796</v>
+        <v>5.804256335190331</v>
       </c>
       <c r="G4">
-        <v>0.002714314004745793</v>
+        <v>0.0008275263217302921</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,16 +539,16 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.1150261744335381</v>
+        <v>0.4013086029141562</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.9861727002578107</v>
+        <v>1.078037143212981</v>
       </c>
       <c r="M4">
-        <v>0.7657938199764871</v>
+        <v>0.6910443951214305</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.37694849909451</v>
+        <v>1.799149318977499</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2294097729609064</v>
+        <v>0.62056738522611</v>
       </c>
       <c r="E5">
-        <v>0.1050273848789232</v>
+        <v>0.3858437438287368</v>
       </c>
       <c r="F5">
-        <v>6.586137278326277</v>
+        <v>5.641700705545503</v>
       </c>
       <c r="G5">
-        <v>0.002717128341331643</v>
+        <v>0.0008321986555209002</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,16 +586,16 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1108695739951315</v>
+        <v>0.385396494783464</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.9784431497423896</v>
+        <v>1.032943947450036</v>
       </c>
       <c r="M5">
-        <v>0.7614415989522385</v>
+        <v>0.6645573815880539</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.375281385125646</v>
+        <v>1.788461585854321</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2282124175077911</v>
+        <v>0.6155918294273022</v>
       </c>
       <c r="E6">
-        <v>0.1042582435596771</v>
+        <v>0.3827809322448346</v>
       </c>
       <c r="F6">
-        <v>6.581517242551797</v>
+        <v>5.6149840895566</v>
       </c>
       <c r="G6">
-        <v>0.002717600593240903</v>
+        <v>0.0008329773003756505</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,16 +633,16 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.110178916935908</v>
+        <v>0.3827671550693452</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.9771726147203594</v>
+        <v>1.025507757005471</v>
       </c>
       <c r="M6">
-        <v>0.7607278345765636</v>
+        <v>0.6601888951097337</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.386999304146968</v>
+        <v>1.863067389003504</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2365383028445649</v>
+        <v>0.6503436016059538</v>
       </c>
       <c r="E7">
-        <v>0.1096000842851197</v>
+        <v>0.4041482493316124</v>
       </c>
       <c r="F7">
-        <v>6.6139025824599</v>
+        <v>5.802045101511567</v>
       </c>
       <c r="G7">
-        <v>0.002714351629243719</v>
+        <v>0.0008275891515422954</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,16 +680,16 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1149701472509577</v>
+        <v>0.4010931086409926</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.9860675876591927</v>
+        <v>1.07742544871229</v>
       </c>
       <c r="M7">
-        <v>0.7657345260669643</v>
+        <v>0.6906851408233408</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>2.442337916623273</v>
+        <v>2.204066737870164</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2736629469555112</v>
+        <v>0.8099682805631687</v>
       </c>
       <c r="E8">
-        <v>0.1332577647106419</v>
+        <v>0.5016357039652561</v>
       </c>
       <c r="F8">
-        <v>6.764755157231292</v>
+        <v>6.673074622372809</v>
       </c>
       <c r="G8">
-        <v>0.002700729256500365</v>
+        <v>0.0008041573981863747</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,16 +727,16 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1360512036086305</v>
+        <v>0.484255540768558</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>1.027212283025221</v>
+        <v>1.315170976709226</v>
       </c>
       <c r="M8">
-        <v>0.7891292356054933</v>
+        <v>0.8301823312550809</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.564006322020532</v>
+        <v>2.931206742612972</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3479947177460474</v>
+        <v>1.156745402482926</v>
       </c>
       <c r="E9">
-        <v>0.1800293600778531</v>
+        <v>0.7106813664682363</v>
       </c>
       <c r="F9">
-        <v>7.090052917855331</v>
+        <v>8.610823301024482</v>
       </c>
       <c r="G9">
-        <v>0.002676559401487406</v>
+        <v>0.0007586918259240791</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,16 +774,16 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1772196429262465</v>
+        <v>0.6608189705020919</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>1.11481487269063</v>
+        <v>1.826466145406613</v>
       </c>
       <c r="M9">
-        <v>0.8397370148142471</v>
+        <v>1.128783053602518</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.661533153017899</v>
+        <v>3.521688663985174</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.4036874852777999</v>
+        <v>1.446844693569091</v>
       </c>
       <c r="E10">
-        <v>0.2146969502910139</v>
+        <v>0.8836406550396703</v>
       </c>
       <c r="F10">
-        <v>7.347934887929057</v>
+        <v>10.25969317299695</v>
       </c>
       <c r="G10">
-        <v>0.002660328820445812</v>
+        <v>0.0007246028599031043</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,16 +821,16 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.2074135894358307</v>
+        <v>0.8058022997184224</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>1.183516908222117</v>
+        <v>2.247969770268469</v>
       </c>
       <c r="M10">
-        <v>0.8798628462298268</v>
+        <v>1.372966509773846</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.707696293629738</v>
+        <v>3.809085918893061</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.4292915374342101</v>
+        <v>1.591324440135878</v>
       </c>
       <c r="E11">
-        <v>0.2305508958695981</v>
+        <v>0.9693393008723206</v>
       </c>
       <c r="F11">
-        <v>7.469557505842829</v>
+        <v>11.0861513690835</v>
       </c>
       <c r="G11">
-        <v>0.002653271577311064</v>
+        <v>0.0007086289879778494</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,16 +868,16 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.2211501418560715</v>
+        <v>0.8774324965626619</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>1.215742393312979</v>
+        <v>2.45567495457172</v>
       </c>
       <c r="M11">
-        <v>0.8987706288010457</v>
+        <v>1.49250955532959</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.725437792860248</v>
+        <v>3.921395066687182</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.4390285094941362</v>
+        <v>1.648424176470371</v>
       </c>
       <c r="E12">
-        <v>0.236567718935575</v>
+        <v>1.00314550756633</v>
       </c>
       <c r="F12">
-        <v>7.516249295143723</v>
+        <v>11.41338940094749</v>
       </c>
       <c r="G12">
-        <v>0.002650645679166695</v>
+        <v>0.0007024747536842853</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,16 +915,16 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.2263529479037345</v>
+        <v>0.9056657116548905</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>1.228087492716583</v>
+        <v>2.537349800246147</v>
       </c>
       <c r="M12">
-        <v>0.9060257213727994</v>
+        <v>1.539363178140093</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.721605223645099</v>
+        <v>3.897037306873983</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.4369296010475807</v>
+        <v>1.636008741842716</v>
       </c>
       <c r="E13">
-        <v>0.2352712771916714</v>
+        <v>0.9957976087143692</v>
       </c>
       <c r="F13">
-        <v>7.506164839500173</v>
+        <v>11.3422126996453</v>
       </c>
       <c r="G13">
-        <v>0.002651209150001645</v>
+        <v>0.0007038056182834234</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,16 +962,16 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2252323681033062</v>
+        <v>0.8995300067847296</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>1.225422403559605</v>
+        <v>2.519610831772468</v>
       </c>
       <c r="M13">
-        <v>0.9044589596590242</v>
+        <v>1.529194615287153</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.709150664328831</v>
+        <v>3.818250550217783</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.4300917618381845</v>
+        <v>1.595970050435881</v>
       </c>
       <c r="E14">
-        <v>0.2310456299768902</v>
+        <v>0.9720909834360754</v>
       </c>
       <c r="F14">
-        <v>7.473386028918355</v>
+        <v>11.11276428565753</v>
       </c>
       <c r="G14">
-        <v>0.002653054612623686</v>
+        <v>0.0007081250533910845</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,16 +1009,16 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.2215781530596956</v>
+        <v>0.8797309712198569</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>1.216755173361605</v>
+        <v>2.462328735883347</v>
       </c>
       <c r="M14">
-        <v>0.8993655970823511</v>
+        <v>1.496329883552249</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.701555876111627</v>
+        <v>3.770471874816451</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.4259088403364331</v>
+        <v>1.571777372738353</v>
       </c>
       <c r="E15">
-        <v>0.2284590666969279</v>
+        <v>0.9577587291701946</v>
       </c>
       <c r="F15">
-        <v>7.453391362406762</v>
+        <v>10.97419703718134</v>
       </c>
       <c r="G15">
-        <v>0.002654191060050836</v>
+        <v>0.0007107557580119886</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,16 +1056,16 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.219340007819028</v>
+        <v>0.8677583925337871</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>1.211464803683157</v>
+        <v>2.427661262177367</v>
       </c>
       <c r="M15">
-        <v>0.8962581851045428</v>
+        <v>1.476418858851815</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.658552627054007</v>
+        <v>3.503345332914193</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.4020198342927586</v>
+        <v>1.437700159658732</v>
       </c>
       <c r="E16">
-        <v>0.213662645492434</v>
+        <v>0.8782080161308556</v>
       </c>
       <c r="F16">
-        <v>7.340074672268059</v>
+        <v>10.20747599176076</v>
       </c>
       <c r="G16">
-        <v>0.002660796558823865</v>
+        <v>0.0007256344267094113</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,16 +1103,16 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.2065159734326301</v>
+        <v>0.8012579359735668</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>1.181430649550151</v>
+        <v>2.234773436365629</v>
       </c>
       <c r="M16">
-        <v>0.8786404322714105</v>
+        <v>1.365353114432438</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.632633357634859</v>
+        <v>3.344761164992406</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.3874354439655292</v>
+        <v>1.359011569508766</v>
       </c>
       <c r="E17">
-        <v>0.2046077959346917</v>
+        <v>0.8314131441441219</v>
       </c>
       <c r="F17">
-        <v>7.271673961944884</v>
+        <v>9.758697833169578</v>
       </c>
       <c r="G17">
-        <v>0.00266493208509228</v>
+        <v>0.0007346191535687448</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,16 +1150,16 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1986497757422825</v>
+        <v>0.7620927143894392</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>1.163256271119138</v>
+        <v>2.120974268366865</v>
       </c>
       <c r="M17">
-        <v>0.868000822481946</v>
+        <v>1.299611103968473</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.617894360034484</v>
+        <v>3.255257612668004</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.379072062713675</v>
+        <v>1.314885035943632</v>
       </c>
       <c r="E18">
-        <v>0.1994074654054003</v>
+        <v>0.8051323896969933</v>
       </c>
       <c r="F18">
-        <v>7.232736454794718</v>
+        <v>9.507513818678206</v>
       </c>
       <c r="G18">
-        <v>0.002667341449717287</v>
+        <v>0.0007397458888032116</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,16 +1197,16 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1941254012872093</v>
+        <v>0.7400779294839026</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>1.152894259098076</v>
+        <v>2.056967430685091</v>
       </c>
       <c r="M18">
-        <v>0.8619427251882144</v>
+        <v>1.262566871862234</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.612932968851169</v>
+        <v>3.225227135319585</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.376244611942127</v>
+        <v>1.300124355938578</v>
       </c>
       <c r="E19">
-        <v>0.1976480208458753</v>
+        <v>0.7963345147183958</v>
       </c>
       <c r="F19">
-        <v>7.219621920759977</v>
+        <v>9.423576036097955</v>
       </c>
       <c r="G19">
-        <v>0.002668162506342791</v>
+        <v>0.0007414756282795805</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,16 +1244,16 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1925935082600887</v>
+        <v>0.7327047628497638</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>1.149401495598596</v>
+        <v>2.035526119617657</v>
       </c>
       <c r="M19">
-        <v>0.8599020938409154</v>
+        <v>1.250147053986922</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.635374994680262</v>
+        <v>3.361460916020235</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3889853533400753</v>
+        <v>1.36726720887728</v>
       </c>
       <c r="E20">
-        <v>0.2055708858909071</v>
+        <v>0.8363267626164372</v>
       </c>
       <c r="F20">
-        <v>7.278913326843906</v>
+        <v>9.805732222226851</v>
       </c>
       <c r="G20">
-        <v>0.002664488674710799</v>
+        <v>0.000733667197805486</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,16 +1291,16 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1994871338573034</v>
+        <v>0.7662071411248235</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>1.165181488894234</v>
+        <v>2.132934097458048</v>
       </c>
       <c r="M20">
-        <v>0.8691270522037087</v>
+        <v>1.306527598586655</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.712801783273164</v>
+        <v>3.841290214721198</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.4320990600007519</v>
+        <v>1.60765978458096</v>
       </c>
       <c r="E21">
-        <v>0.2322864342919928</v>
+        <v>0.9790140529556908</v>
       </c>
       <c r="F21">
-        <v>7.482996571019839</v>
+        <v>11.17973933000167</v>
       </c>
       <c r="G21">
-        <v>0.002652511295849277</v>
+        <v>0.0007068595605893633</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,16 +1338,16 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.2226514481374835</v>
+        <v>0.8855134580828121</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>1.219297077293589</v>
+        <v>2.479064771752377</v>
       </c>
       <c r="M21">
-        <v>0.9008590509723717</v>
+        <v>1.505936442147757</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>2.764924187522297</v>
+        <v>4.175739673448618</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.460518172389186</v>
+        <v>1.779145291998191</v>
       </c>
       <c r="E22">
-        <v>0.249824603415064</v>
+        <v>1.080428168203483</v>
       </c>
       <c r="F22">
-        <v>7.620091255161469</v>
+        <v>12.16343773655501</v>
       </c>
       <c r="G22">
-        <v>0.00264495440696825</v>
+        <v>0.0006886965004870416</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,16 +1385,16 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.2377973585199129</v>
+        <v>0.9701765578236348</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>1.255493539792923</v>
+        <v>2.723447753000954</v>
       </c>
       <c r="M22">
-        <v>0.9221527272167975</v>
+        <v>1.645780522771929</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>2.736965749024648</v>
+        <v>3.994996262557663</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.4453273642943714</v>
+        <v>1.686047550112903</v>
       </c>
       <c r="E23">
-        <v>0.2404565830556891</v>
+        <v>1.025403590948997</v>
       </c>
       <c r="F23">
-        <v>7.546575963609484</v>
+        <v>11.6291535404817</v>
       </c>
       <c r="G23">
-        <v>0.002648962985253966</v>
+        <v>0.000698465848436455</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,16 +1432,16 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.2297127810858939</v>
+        <v>0.9242492292006261</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>1.236098235322089</v>
+        <v>2.591037707283277</v>
       </c>
       <c r="M23">
-        <v>0.9107367563436384</v>
+        <v>1.57011288954142</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.634134995083457</v>
+        <v>3.353905815993528</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3882845729147562</v>
+        <v>1.36353141011304</v>
       </c>
       <c r="E24">
-        <v>0.2051354561256318</v>
+        <v>0.8341034016579272</v>
       </c>
       <c r="F24">
-        <v>7.275639205850723</v>
+        <v>9.784446949416889</v>
       </c>
       <c r="G24">
-        <v>0.002664689041581573</v>
+        <v>0.0007340976948720128</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,16 +1479,16 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1991085705277271</v>
+        <v>0.764345466112303</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1.16431082810962</v>
+        <v>2.127522693445968</v>
       </c>
       <c r="M24">
-        <v>0.8686177008117397</v>
+        <v>1.303398335791869</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.529671927051311</v>
+        <v>2.726404319768619</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.3277070429963658</v>
+        <v>1.058024869897395</v>
       </c>
       <c r="E25">
-        <v>0.1673283674118835</v>
+        <v>0.6514745937626785</v>
       </c>
       <c r="F25">
-        <v>6.998802069240128</v>
+        <v>8.054484735759758</v>
       </c>
       <c r="G25">
-        <v>0.002682828116338637</v>
+        <v>0.0007710262979170699</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,16 +1526,16 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.1660955831146822</v>
+        <v>0.6109981561340305</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>1.090363033537869</v>
+        <v>1.681704915698248</v>
       </c>
       <c r="M25">
-        <v>0.8255337392173772</v>
+        <v>1.044479031519174</v>
       </c>
       <c r="N25">
         <v>0</v>
